--- a/Fine Form Pre-Cast/35511/toedit2.xlsx
+++ b/Fine Form Pre-Cast/35511/toedit2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fine Form Pre-Cast\35511\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9461C185-3A12-4E1E-8A25-070F159358BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BF27DE-399A-4A07-B624-B949FA5E8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="675" windowWidth="28890" windowHeight="19560" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
+    <workbookView xWindow="9240" yWindow="2205" windowWidth="28890" windowHeight="18450" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
   </bookViews>
   <sheets>
     <sheet name="to_add" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>Step Id</t>
   </si>
@@ -59,6 +59,162 @@
   </si>
   <si>
     <t>Tier 6</t>
+  </si>
+  <si>
+    <t>a4c2dd26-e404-44c6-94b5-6eb077b7af7d</t>
+  </si>
+  <si>
+    <t>work-in-progress</t>
+  </si>
+  <si>
+    <t>Installers Checklist</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Panel No. P-01</t>
+  </si>
+  <si>
+    <t>0166da73-0bfa-417f-b95c-b8def1c019a5</t>
+  </si>
+  <si>
+    <t>Panel No. P-02</t>
+  </si>
+  <si>
+    <t>00ce1904-d23b-4025-9767-048ecd506311</t>
+  </si>
+  <si>
+    <t>Panel No. P-03</t>
+  </si>
+  <si>
+    <t>640bb76b-922f-4a90-9019-63df52522a13</t>
+  </si>
+  <si>
+    <t>Panel No. P-04</t>
+  </si>
+  <si>
+    <t>ca9d2891-c553-4609-aa0e-e666ffbffc8e</t>
+  </si>
+  <si>
+    <t>Panel No. P-05</t>
+  </si>
+  <si>
+    <t>fd4be138-4939-4cd6-8f8a-606e2dc339eb</t>
+  </si>
+  <si>
+    <t>Panel No. P-06</t>
+  </si>
+  <si>
+    <t>daae1fb3-725f-4a0c-b2ee-861728eeb73e</t>
+  </si>
+  <si>
+    <t>Panel No. P-07</t>
+  </si>
+  <si>
+    <t>74757535-4256-44ab-b872-858a40bb3abf</t>
+  </si>
+  <si>
+    <t>Panel No. P-08</t>
+  </si>
+  <si>
+    <t>662ba22d-4894-4fe2-8122-d83f6e0c37d1</t>
+  </si>
+  <si>
+    <t>Panel No. P-09</t>
+  </si>
+  <si>
+    <t>b6a82e0c-e2c1-4382-a7d9-c7f366d56218</t>
+  </si>
+  <si>
+    <t>Panel No. P-10</t>
+  </si>
+  <si>
+    <t>8bca2447-c73c-44d7-a0d8-03bddc47b3a0</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Panel No. P-11</t>
+  </si>
+  <si>
+    <t>e5996f0e-05c2-48ad-bc7c-249b8ca44fc5</t>
+  </si>
+  <si>
+    <t>Panel No. P-12</t>
+  </si>
+  <si>
+    <t>887cbce3-f639-49b7-8659-c2896dfc65df</t>
+  </si>
+  <si>
+    <t>Panel No. P-101</t>
+  </si>
+  <si>
+    <t>2613f416-62ba-437d-bbe5-737dcb853aa4</t>
+  </si>
+  <si>
+    <t>Panel No. P-102</t>
+  </si>
+  <si>
+    <t>effe6c34-6769-4834-bf67-407c2c5f5080</t>
+  </si>
+  <si>
+    <t>Panel No. P-103</t>
+  </si>
+  <si>
+    <t>6611b0e0-237f-4baf-bcab-2ad7d8fbd795</t>
+  </si>
+  <si>
+    <t>Panel No. P-104</t>
+  </si>
+  <si>
+    <t>afe6695f-356b-48b3-96e1-effb14a37979</t>
+  </si>
+  <si>
+    <t>Panel No. P-105</t>
+  </si>
+  <si>
+    <t>0a7cbb74-d5a5-4ccf-8576-6980e045b4b8</t>
+  </si>
+  <si>
+    <t>Panel No. P-106</t>
+  </si>
+  <si>
+    <t>1bcadda5-1ad5-42a6-a5eb-1305d43a7380</t>
+  </si>
+  <si>
+    <t>Panel No. P-107</t>
+  </si>
+  <si>
+    <t>989cfffc-8f20-45f9-b502-0a923c92200b</t>
+  </si>
+  <si>
+    <t>Panel No. P-108</t>
+  </si>
+  <si>
+    <t>3afdddcb-cbc8-43cf-85b3-19f8e737823f</t>
+  </si>
+  <si>
+    <t>Panel No. P-109</t>
+  </si>
+  <si>
+    <t>2d78a244-b4db-4b0c-994d-5392d5e4affd</t>
+  </si>
+  <si>
+    <t>Panel No. P-110</t>
+  </si>
+  <si>
+    <t>2de99c52-a8af-4a23-9a38-33c900aea1e3</t>
+  </si>
+  <si>
+    <t>Panel No. P-111</t>
+  </si>
+  <si>
+    <t>c5df5f13-da7e-40e3-803c-2ff29f4ad55f</t>
+  </si>
+  <si>
+    <t>Panel No. P-112</t>
   </si>
 </sst>
 </file>
@@ -919,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2ADC0-CB01-4C78-A0B7-4CDD953FBAB6}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +1124,630 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
